--- a/GA_bNa_bCa_NaK/conductances.xlsx
+++ b/GA_bNa_bCa_NaK/conductances.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="16">
   <si>
     <t xml:space="preserve">conductance_name</t>
   </si>
@@ -77,7 +77,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -105,11 +105,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -154,7 +149,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -164,10 +159,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -188,10 +179,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C221"/>
+  <dimension ref="A1:C331"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A191" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B212" activeCellId="0" sqref="B212:B221"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A247" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B272" activeCellId="0" sqref="B272:B276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1968,663 +1959,1708 @@
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="s">
+      <c r="A162" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B162" s="2" t="n">
         <v>-0.260659781448158</v>
       </c>
-      <c r="C162" s="0" t="s">
+      <c r="C162" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="3" t="s">
+      <c r="A163" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B163" s="2" t="n">
         <v>-0.934527270227013</v>
       </c>
-      <c r="C163" s="0" t="s">
+      <c r="C163" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="3" t="s">
+      <c r="A164" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B164" s="2" t="n">
         <v>0.281881919460457</v>
       </c>
-      <c r="C164" s="0" t="s">
+      <c r="C164" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="3" t="s">
+      <c r="A165" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B165" s="2" t="n">
         <v>0.510431463842986</v>
       </c>
-      <c r="C165" s="0" t="s">
+      <c r="C165" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="3" t="s">
+      <c r="A166" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B166" s="2" t="n">
         <v>-0.126161044734425</v>
       </c>
-      <c r="C166" s="0" t="s">
+      <c r="C166" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="3" t="s">
+      <c r="A167" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B167" s="2" t="n">
         <v>0.344784308064366</v>
       </c>
-      <c r="C167" s="0" t="s">
+      <c r="C167" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="3" t="s">
+      <c r="A168" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B168" s="2" t="n">
         <v>0.0374271692186485</v>
       </c>
-      <c r="C168" s="0" t="s">
+      <c r="C168" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="3" t="s">
+      <c r="A169" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B169" s="2" t="n">
         <v>-0.917182189181872</v>
       </c>
-      <c r="C169" s="0" t="s">
+      <c r="C169" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="3" t="s">
+      <c r="A170" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B170" s="2" t="n">
         <v>-0.131485532342834</v>
       </c>
-      <c r="C170" s="0" t="s">
+      <c r="C170" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="3" t="s">
+      <c r="A171" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B171" s="2" t="n">
         <v>0.57908775414106</v>
       </c>
-      <c r="C171" s="0" t="s">
+      <c r="C171" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="s">
+      <c r="A172" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B172" s="2" t="n">
         <v>0.249445492831243</v>
       </c>
-      <c r="C172" s="0" t="s">
+      <c r="C172" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="3" t="s">
+      <c r="A173" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B173" s="2" t="n">
         <v>-0.156817401800269</v>
       </c>
-      <c r="C173" s="0" t="s">
+      <c r="C173" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="3" t="s">
+      <c r="A174" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B174" s="2" t="n">
         <v>-0.590770849768336</v>
       </c>
-      <c r="C174" s="0" t="s">
+      <c r="C174" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="3" t="s">
+      <c r="A175" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B175" s="2" t="n">
         <v>-0.196288710175198</v>
       </c>
-      <c r="C175" s="0" t="s">
+      <c r="C175" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="3" t="s">
+      <c r="A176" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B176" s="2" t="n">
         <v>-0.602427885643883</v>
       </c>
-      <c r="C176" s="0" t="s">
+      <c r="C176" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="3" t="s">
+      <c r="A177" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B177" s="2" t="n">
         <v>-0.84361740724293</v>
       </c>
-      <c r="C177" s="0" t="s">
+      <c r="C177" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="3" t="s">
+      <c r="A178" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B178" s="2" t="n">
         <v>-0.333679723246786</v>
       </c>
-      <c r="C178" s="0" t="s">
+      <c r="C178" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="3" t="s">
+      <c r="A179" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B179" s="2" t="n">
         <v>-0.965953536707575</v>
       </c>
-      <c r="C179" s="0" t="s">
+      <c r="C179" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="3" t="s">
+      <c r="A180" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B180" s="2" t="n">
         <v>-0.878460495305603</v>
       </c>
-      <c r="C180" s="0" t="s">
+      <c r="C180" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="3" t="s">
+      <c r="A181" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B181" s="2" t="n">
         <v>-0.407264435927902</v>
       </c>
-      <c r="C181" s="0" t="s">
+      <c r="C181" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0" t="s">
+      <c r="A182" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B182" s="2" t="n">
         <v>-0.0663019216489779</v>
       </c>
-      <c r="C182" s="0" t="s">
+      <c r="C182" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="3" t="s">
+      <c r="A183" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B183" s="2" t="n">
         <v>-0.357617336200876</v>
       </c>
-      <c r="C183" s="0" t="s">
+      <c r="C183" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="3" t="s">
+      <c r="A184" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B184" s="2" t="n">
         <v>0.187276677124127</v>
       </c>
-      <c r="C184" s="0" t="s">
+      <c r="C184" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="3" t="s">
+      <c r="A185" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B185" s="2" t="n">
         <v>0.245272928126715</v>
       </c>
-      <c r="C185" s="0" t="s">
+      <c r="C185" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="3" t="s">
+      <c r="A186" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B186" s="2" t="n">
         <v>-0.673801980088303</v>
       </c>
-      <c r="C186" s="0" t="s">
+      <c r="C186" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="3" t="s">
+      <c r="A187" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B187" s="2" t="n">
         <v>-0.308144258301659</v>
       </c>
-      <c r="C187" s="0" t="s">
+      <c r="C187" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="3" t="s">
+      <c r="A188" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B188" s="2" t="n">
         <v>-0.367844201347964</v>
       </c>
-      <c r="C188" s="0" t="s">
+      <c r="C188" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="3" t="s">
+      <c r="A189" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B189" s="2" t="n">
         <v>-0.480206408368076</v>
       </c>
-      <c r="C189" s="0" t="s">
+      <c r="C189" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="3" t="s">
+      <c r="A190" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B190" s="2" t="n">
         <v>-0.390146243221527</v>
       </c>
-      <c r="C190" s="0" t="s">
+      <c r="C190" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="3" t="s">
+      <c r="A191" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B191" s="2" t="n">
         <v>-0.493886044748522</v>
       </c>
-      <c r="C191" s="0" t="s">
+      <c r="C191" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0" t="s">
+      <c r="A192" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B192" s="2" t="n">
         <v>-0.753961698567024</v>
       </c>
-      <c r="C192" s="0" t="s">
+      <c r="C192" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="3" t="s">
+      <c r="A193" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B193" s="2" t="n">
         <v>-0.416001257297792</v>
       </c>
-      <c r="C193" s="0" t="s">
+      <c r="C193" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="3" t="s">
+      <c r="A194" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B194" s="2" t="n">
         <v>-0.411238428088845</v>
       </c>
-      <c r="C194" s="0" t="s">
+      <c r="C194" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="3" t="s">
+      <c r="A195" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B195" s="2" t="n">
         <v>-0.668910977845252</v>
       </c>
-      <c r="C195" s="0" t="s">
+      <c r="C195" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="3" t="s">
+      <c r="A196" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B196" s="2" t="n">
         <v>0.55352354388038</v>
       </c>
-      <c r="C196" s="0" t="s">
+      <c r="C196" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="3" t="s">
+      <c r="A197" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B197" s="2" t="n">
         <v>-0.974392642450515</v>
       </c>
-      <c r="C197" s="0" t="s">
+      <c r="C197" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="3" t="s">
+      <c r="A198" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B198" s="2" t="n">
         <v>-0.93167499904687</v>
       </c>
-      <c r="C198" s="0" t="s">
+      <c r="C198" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="3" t="s">
+      <c r="A199" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B199" s="2" t="n">
         <v>0.275112615287323</v>
       </c>
-      <c r="C199" s="0" t="s">
+      <c r="C199" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="3" t="s">
+      <c r="A200" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B200" s="2" t="n">
         <v>-0.46612737742199</v>
       </c>
-      <c r="C200" s="0" t="s">
+      <c r="C200" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="3" t="s">
+      <c r="A201" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B201" s="2" t="n">
         <v>0.475599500212748</v>
       </c>
-      <c r="C201" s="0" t="s">
+      <c r="C201" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0" t="s">
+      <c r="A202" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B202" s="2" t="n">
         <v>0.681252655097302</v>
       </c>
-      <c r="C202" s="0" t="s">
+      <c r="C202" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="3" t="s">
+      <c r="A203" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B203" s="2" t="n">
         <v>-0.317827058307533</v>
       </c>
-      <c r="C203" s="0" t="s">
+      <c r="C203" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="3" t="s">
+      <c r="A204" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B204" s="2" t="n">
         <v>0.076332668460623</v>
       </c>
-      <c r="C204" s="0" t="s">
+      <c r="C204" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="3" t="s">
+      <c r="A205" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B205" s="2" t="n">
         <v>-0.142839433268791</v>
       </c>
-      <c r="C205" s="0" t="s">
+      <c r="C205" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="3" t="s">
+      <c r="A206" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B206" s="2" t="n">
         <v>-0.421499567881045</v>
       </c>
-      <c r="C206" s="0" t="s">
+      <c r="C206" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="3" t="s">
+      <c r="A207" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B207" s="2" t="n">
         <v>-0.436222855746495</v>
       </c>
-      <c r="C207" s="0" t="s">
+      <c r="C207" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="3" t="s">
+      <c r="A208" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B208" s="2" t="n">
         <v>-0.102146789359504</v>
       </c>
-      <c r="C208" s="0" t="s">
+      <c r="C208" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="3" t="s">
+      <c r="A209" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B209" s="2" t="n">
         <v>0.196519955709293</v>
       </c>
-      <c r="C209" s="0" t="s">
+      <c r="C209" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="3" t="s">
+      <c r="A210" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B210" s="2" t="n">
         <v>0.055091404519495</v>
       </c>
-      <c r="C210" s="0" t="s">
+      <c r="C210" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="3" t="s">
+      <c r="A211" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B211" s="2" t="n">
         <v>0.445222740277227</v>
       </c>
-      <c r="C211" s="0" t="s">
+      <c r="C211" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="0" t="s">
+      <c r="A212" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B212" s="2" t="n">
         <v>-0.762579779536381</v>
       </c>
-      <c r="C212" s="0" t="s">
+      <c r="C212" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="3" t="s">
+      <c r="A213" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B213" s="2" t="n">
         <v>-0.778119014106373</v>
       </c>
-      <c r="C213" s="0" t="s">
+      <c r="C213" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="3" t="s">
+      <c r="A214" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B214" s="2" t="n">
         <v>-0.487691546799799</v>
       </c>
-      <c r="C214" s="0" t="s">
+      <c r="C214" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="3" t="s">
+      <c r="A215" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B215" s="2" t="n">
         <v>-0.816278895516983</v>
       </c>
-      <c r="C215" s="0" t="s">
+      <c r="C215" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="3" t="s">
+      <c r="A216" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B216" s="2" t="n">
         <v>-0.749270434450585</v>
       </c>
-      <c r="C216" s="0" t="s">
+      <c r="C216" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="3" t="s">
+      <c r="A217" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B217" s="2" t="n">
         <v>-0.894427617457485</v>
       </c>
-      <c r="C217" s="0" t="s">
+      <c r="C217" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="3" t="s">
+      <c r="A218" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B218" s="2" t="n">
         <v>-0.79466589366902</v>
       </c>
-      <c r="C218" s="0" t="s">
+      <c r="C218" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="3" t="s">
+      <c r="A219" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B219" s="2" t="n">
         <v>-0.717895638815439</v>
       </c>
-      <c r="C219" s="0" t="s">
+      <c r="C219" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="3" t="s">
+      <c r="A220" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B220" s="2" t="n">
         <v>-0.807114100903156</v>
       </c>
-      <c r="C220" s="0" t="s">
+      <c r="C220" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="3" t="s">
+      <c r="A221" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B221" s="2" t="n">
         <v>-0.219761288512196</v>
       </c>
-      <c r="C221" s="0" t="s">
-        <v>12</v>
+      <c r="C221" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B222" s="0" t="n">
+        <v>-0.442966556292732</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B223" s="0" t="n">
+        <v>-0.894414446807759</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B224" s="0" t="n">
+        <v>-0.727743664102711</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B225" s="0" t="n">
+        <v>-0.292419172081493</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B226" s="0" t="n">
+        <v>-0.809856843965121</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B227" s="0" t="n">
+        <v>-0.345520336054594</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B228" s="0" t="n">
+        <v>0.507329836400751</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B229" s="0" t="n">
+        <v>0.251295333170982</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B230" s="0" t="n">
+        <v>-0.435542873510844</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B231" s="0" t="n">
+        <v>-0.13503793864753</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B232" s="0" t="n">
+        <v>-0.773556397868956</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B233" s="0" t="n">
+        <v>-0.2983350988689</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B234" s="0" t="n">
+        <v>-0.0864752968675415</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B235" s="0" t="n">
+        <v>-0.0488006683030441</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B236" s="0" t="n">
+        <v>-0.274808756165143</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B237" s="0" t="n">
+        <v>-0.532626103071607</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B238" s="0" t="n">
+        <v>-0.235121631944984</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B239" s="0" t="n">
+        <v>-0.0266088477554128</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B240" s="0" t="n">
+        <v>-0.817528997140675</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B241" s="0" t="n">
+        <v>-0.626434237859842</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B242" s="0" t="n">
+        <v>0.20427200417611</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B243" s="0" t="n">
+        <v>-0.126480975287754</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B244" s="0" t="n">
+        <v>-0.0959364793087419</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B245" s="0" t="n">
+        <v>-0.300918992814649</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B246" s="0" t="n">
+        <v>0.0612985578653447</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B247" s="0" t="n">
+        <v>0.628957926533704</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B248" s="0" t="n">
+        <v>0.563241126270933</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B249" s="0" t="n">
+        <v>0.849565047527621</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B250" s="0" t="n">
+        <v>0.749264795378214</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B251" s="0" t="n">
+        <v>0.554051160140025</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B252" s="0" t="n">
+        <v>0.75054622892367</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B253" s="0" t="n">
+        <v>0.635594542060332</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B254" s="0" t="n">
+        <v>0.812577521488803</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B255" s="0" t="n">
+        <v>0.703023176301561</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B256" s="0" t="n">
+        <v>0.974400446880291</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B257" s="0" t="n">
+        <v>-0.579840587192387</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B258" s="0" t="n">
+        <v>-0.841816463323983</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B259" s="0" t="n">
+        <v>-0.282438007275763</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B260" s="0" t="n">
+        <v>-0.351006318246013</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B261" s="0" t="n">
+        <v>-0.743339835899908</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B262" s="0" t="n">
+        <v>-0.503634955806679</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B263" s="0" t="n">
+        <v>0.0302778631611365</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B264" s="0" t="n">
+        <v>0.916134597608929</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B265" s="0" t="n">
+        <v>-0.802634782277207</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B266" s="0" t="n">
+        <v>0.718763565567097</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B267" s="0" t="n">
+        <v>-0.405389003077387</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B268" s="0" t="n">
+        <v>-0.0397531169971471</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B269" s="0" t="n">
+        <v>-0.50200216541791</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B270" s="0" t="n">
+        <v>0.897128577068237</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B271" s="0" t="n">
+        <v>-0.863080450244806</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B272" s="0" t="n">
+        <v>-0.498535913379009</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B273" s="0" t="n">
+        <v>-0.184616395669794</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B274" s="0" t="n">
+        <v>-0.471686742569325</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B275" s="0" t="n">
+        <v>-0.704267073856074</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B276" s="0" t="n">
+        <v>-0.518174774463786</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C277" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C278" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C279" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C280" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C281" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C282" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C283" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C284" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C285" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C286" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C287" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C288" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C289" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C290" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C291" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C292" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C293" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C294" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C295" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C296" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C297" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C298" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C299" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C300" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C301" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C302" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C303" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C304" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C305" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C306" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C307" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C308" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C309" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C310" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C311" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C312" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C313" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C314" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C315" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C316" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C317" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C318" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C319" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C320" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C321" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C322" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C323" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C324" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C325" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C326" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C327" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C328" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C329" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C330" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C331" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/GA_bNa_bCa_NaK/conductances.xlsx
+++ b/GA_bNa_bCa_NaK/conductances.xlsx
@@ -181,8 +181,8 @@
   </sheetPr>
   <dimension ref="A1:C331"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A247" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B272" activeCellId="0" sqref="B272:B276"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A308" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B327" activeCellId="0" sqref="B327:B331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3227,6 +3227,9 @@
       <c r="A277" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B277" s="0" t="n">
+        <v>0.756657026815114</v>
+      </c>
       <c r="C277" s="0" t="s">
         <v>4</v>
       </c>
@@ -3235,6 +3238,9 @@
       <c r="A278" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B278" s="0" t="n">
+        <v>-0.798527231898911</v>
+      </c>
       <c r="C278" s="0" t="s">
         <v>4</v>
       </c>
@@ -3243,6 +3249,9 @@
       <c r="A279" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B279" s="0" t="n">
+        <v>0.458446451883198</v>
+      </c>
       <c r="C279" s="0" t="s">
         <v>4</v>
       </c>
@@ -3251,6 +3260,9 @@
       <c r="A280" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B280" s="0" t="n">
+        <v>0.595802164527398</v>
+      </c>
       <c r="C280" s="0" t="s">
         <v>4</v>
       </c>
@@ -3259,6 +3271,9 @@
       <c r="A281" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B281" s="0" t="n">
+        <v>-0.684528316251621</v>
+      </c>
       <c r="C281" s="0" t="s">
         <v>4</v>
       </c>
@@ -3267,6 +3282,9 @@
       <c r="A282" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B282" s="0" t="n">
+        <v>0.511921292940395</v>
+      </c>
       <c r="C282" s="0" t="s">
         <v>4</v>
       </c>
@@ -3275,6 +3293,9 @@
       <c r="A283" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B283" s="0" t="n">
+        <v>-0.617032590283515</v>
+      </c>
       <c r="C283" s="0" t="s">
         <v>4</v>
       </c>
@@ -3283,6 +3304,9 @@
       <c r="A284" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B284" s="0" t="n">
+        <v>-0.0937788981987415</v>
+      </c>
       <c r="C284" s="0" t="s">
         <v>4</v>
       </c>
@@ -3291,6 +3315,9 @@
       <c r="A285" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B285" s="0" t="n">
+        <v>-0.116271595775273</v>
+      </c>
       <c r="C285" s="0" t="s">
         <v>4</v>
       </c>
@@ -3299,6 +3326,9 @@
       <c r="A286" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B286" s="0" t="n">
+        <v>0.346916882165794</v>
+      </c>
       <c r="C286" s="0" t="s">
         <v>4</v>
       </c>
@@ -3307,6 +3337,9 @@
       <c r="A287" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B287" s="0" t="n">
+        <v>-0.370988334535485</v>
+      </c>
       <c r="C287" s="0" t="s">
         <v>4</v>
       </c>
@@ -3315,6 +3348,9 @@
       <c r="A288" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B288" s="0" t="n">
+        <v>-0.237231220214397</v>
+      </c>
       <c r="C288" s="0" t="s">
         <v>4</v>
       </c>
@@ -3323,6 +3359,9 @@
       <c r="A289" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B289" s="0" t="n">
+        <v>-0.449319629792826</v>
+      </c>
       <c r="C289" s="0" t="s">
         <v>4</v>
       </c>
@@ -3331,6 +3370,9 @@
       <c r="A290" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B290" s="0" t="n">
+        <v>-0.432336668902302</v>
+      </c>
       <c r="C290" s="0" t="s">
         <v>4</v>
       </c>
@@ -3339,6 +3381,9 @@
       <c r="A291" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B291" s="0" t="n">
+        <v>-0.46979319403174</v>
+      </c>
       <c r="C291" s="0" t="s">
         <v>4</v>
       </c>
@@ -3347,6 +3392,9 @@
       <c r="A292" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B292" s="0" t="n">
+        <v>-0.182720342230985</v>
+      </c>
       <c r="C292" s="0" t="s">
         <v>4</v>
       </c>
@@ -3355,6 +3403,9 @@
       <c r="A293" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B293" s="0" t="n">
+        <v>0.0620164433550009</v>
+      </c>
       <c r="C293" s="0" t="s">
         <v>4</v>
       </c>
@@ -3363,6 +3414,9 @@
       <c r="A294" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B294" s="0" t="n">
+        <v>-0.177605904186445</v>
+      </c>
       <c r="C294" s="0" t="s">
         <v>4</v>
       </c>
@@ -3371,6 +3425,9 @@
       <c r="A295" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B295" s="0" t="n">
+        <v>-0.180568308191349</v>
+      </c>
       <c r="C295" s="0" t="s">
         <v>4</v>
       </c>
@@ -3379,6 +3436,9 @@
       <c r="A296" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B296" s="0" t="n">
+        <v>-0.0773878902581307</v>
+      </c>
       <c r="C296" s="0" t="s">
         <v>4</v>
       </c>
@@ -3387,6 +3447,9 @@
       <c r="A297" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B297" s="0" t="n">
+        <v>0.0431194084396979</v>
+      </c>
       <c r="C297" s="0" t="s">
         <v>4</v>
       </c>
@@ -3395,6 +3458,9 @@
       <c r="A298" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B298" s="0" t="n">
+        <v>-0.823996393741258</v>
+      </c>
       <c r="C298" s="0" t="s">
         <v>4</v>
       </c>
@@ -3403,6 +3469,9 @@
       <c r="A299" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B299" s="0" t="n">
+        <v>0.55718879186953</v>
+      </c>
       <c r="C299" s="0" t="s">
         <v>4</v>
       </c>
@@ -3411,6 +3480,9 @@
       <c r="A300" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B300" s="0" t="n">
+        <v>0.4775866667647</v>
+      </c>
       <c r="C300" s="0" t="s">
         <v>4</v>
       </c>
@@ -3419,6 +3491,9 @@
       <c r="A301" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B301" s="0" t="n">
+        <v>0.307964584260706</v>
+      </c>
       <c r="C301" s="0" t="s">
         <v>4</v>
       </c>
@@ -3427,6 +3502,9 @@
       <c r="A302" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B302" s="0" t="n">
+        <v>0.879889555501386</v>
+      </c>
       <c r="C302" s="0" t="s">
         <v>4</v>
       </c>
@@ -3435,6 +3513,9 @@
       <c r="A303" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B303" s="0" t="n">
+        <v>0.717687039866747</v>
+      </c>
       <c r="C303" s="0" t="s">
         <v>4</v>
       </c>
@@ -3443,6 +3524,9 @@
       <c r="A304" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B304" s="0" t="n">
+        <v>0.489111153317411</v>
+      </c>
       <c r="C304" s="0" t="s">
         <v>4</v>
       </c>
@@ -3451,6 +3535,9 @@
       <c r="A305" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B305" s="0" t="n">
+        <v>0.716146672415392</v>
+      </c>
       <c r="C305" s="0" t="s">
         <v>4</v>
       </c>
@@ -3459,6 +3546,9 @@
       <c r="A306" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B306" s="0" t="n">
+        <v>0.625899498627112</v>
+      </c>
       <c r="C306" s="0" t="s">
         <v>4</v>
       </c>
@@ -3467,6 +3557,9 @@
       <c r="A307" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B307" s="0" t="n">
+        <v>-0.0866204035518493</v>
+      </c>
       <c r="C307" s="0" t="s">
         <v>4</v>
       </c>
@@ -3475,6 +3568,9 @@
       <c r="A308" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B308" s="0" t="n">
+        <v>0.581748629184881</v>
+      </c>
       <c r="C308" s="0" t="s">
         <v>4</v>
       </c>
@@ -3483,6 +3579,9 @@
       <c r="A309" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B309" s="0" t="n">
+        <v>-0.924633664865452</v>
+      </c>
       <c r="C309" s="0" t="s">
         <v>4</v>
       </c>
@@ -3491,6 +3590,9 @@
       <c r="A310" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B310" s="0" t="n">
+        <v>0.626558168288773</v>
+      </c>
       <c r="C310" s="0" t="s">
         <v>4</v>
       </c>
@@ -3499,6 +3601,9 @@
       <c r="A311" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B311" s="0" t="n">
+        <v>0.54069379801553</v>
+      </c>
       <c r="C311" s="0" t="s">
         <v>4</v>
       </c>
@@ -3507,6 +3612,9 @@
       <c r="A312" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B312" s="0" t="n">
+        <v>-0.0165830841540329</v>
+      </c>
       <c r="C312" s="0" t="s">
         <v>4</v>
       </c>
@@ -3515,6 +3623,9 @@
       <c r="A313" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B313" s="0" t="n">
+        <v>-0.268161206214793</v>
+      </c>
       <c r="C313" s="0" t="s">
         <v>4</v>
       </c>
@@ -3523,6 +3634,9 @@
       <c r="A314" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B314" s="0" t="n">
+        <v>-0.523572403108033</v>
+      </c>
       <c r="C314" s="0" t="s">
         <v>4</v>
       </c>
@@ -3531,6 +3645,9 @@
       <c r="A315" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B315" s="0" t="n">
+        <v>-0.536358554299764</v>
+      </c>
       <c r="C315" s="0" t="s">
         <v>4</v>
       </c>
@@ -3539,6 +3656,9 @@
       <c r="A316" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B316" s="0" t="n">
+        <v>-0.218998317019344</v>
+      </c>
       <c r="C316" s="0" t="s">
         <v>4</v>
       </c>
@@ -3547,6 +3667,9 @@
       <c r="A317" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="B317" s="0" t="n">
+        <v>-0.109347533013707</v>
+      </c>
       <c r="C317" s="0" t="s">
         <v>4</v>
       </c>
@@ -3555,6 +3678,9 @@
       <c r="A318" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="B318" s="0" t="n">
+        <v>0.508537551303924</v>
+      </c>
       <c r="C318" s="0" t="s">
         <v>4</v>
       </c>
@@ -3563,6 +3689,9 @@
       <c r="A319" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="B319" s="0" t="n">
+        <v>-0.629286823526495</v>
+      </c>
       <c r="C319" s="0" t="s">
         <v>4</v>
       </c>
@@ -3571,6 +3700,9 @@
       <c r="A320" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="B320" s="0" t="n">
+        <v>0.445538386642027</v>
+      </c>
       <c r="C320" s="0" t="s">
         <v>4</v>
       </c>
@@ -3579,6 +3711,9 @@
       <c r="A321" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="B321" s="0" t="n">
+        <v>-0.285824778878705</v>
+      </c>
       <c r="C321" s="0" t="s">
         <v>4</v>
       </c>
@@ -3587,6 +3722,9 @@
       <c r="A322" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="B322" s="0" t="n">
+        <v>-0.350392016210249</v>
+      </c>
       <c r="C322" s="0" t="s">
         <v>4</v>
       </c>
@@ -3595,6 +3733,9 @@
       <c r="A323" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="B323" s="0" t="n">
+        <v>-0.931043853072481</v>
+      </c>
       <c r="C323" s="0" t="s">
         <v>4</v>
       </c>
@@ -3603,6 +3744,9 @@
       <c r="A324" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="B324" s="0" t="n">
+        <v>-0.710287512726867</v>
+      </c>
       <c r="C324" s="0" t="s">
         <v>4</v>
       </c>
@@ -3611,6 +3755,9 @@
       <c r="A325" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="B325" s="0" t="n">
+        <v>0.489416986067738</v>
+      </c>
       <c r="C325" s="0" t="s">
         <v>4</v>
       </c>
@@ -3619,6 +3766,9 @@
       <c r="A326" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="B326" s="0" t="n">
+        <v>-0.987284547895733</v>
+      </c>
       <c r="C326" s="0" t="s">
         <v>4</v>
       </c>
@@ -3627,6 +3777,9 @@
       <c r="A327" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="B327" s="0" t="n">
+        <v>-0.173635560801955</v>
+      </c>
       <c r="C327" s="0" t="s">
         <v>4</v>
       </c>
@@ -3635,6 +3788,9 @@
       <c r="A328" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="B328" s="0" t="n">
+        <v>-0.474160215271831</v>
+      </c>
       <c r="C328" s="0" t="s">
         <v>4</v>
       </c>
@@ -3643,6 +3799,9 @@
       <c r="A329" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="B329" s="0" t="n">
+        <v>-0.716524763889304</v>
+      </c>
       <c r="C329" s="0" t="s">
         <v>4</v>
       </c>
@@ -3651,6 +3810,9 @@
       <c r="A330" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="B330" s="0" t="n">
+        <v>-0.302953228066741</v>
+      </c>
       <c r="C330" s="0" t="s">
         <v>4</v>
       </c>
@@ -3658,6 +3820,9 @@
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="B331" s="0" t="n">
+        <v>0.301791766018537</v>
       </c>
       <c r="C331" s="0" t="s">
         <v>4</v>
